--- a/SchedulingData/static7/pso/scheduling1_13.xlsx
+++ b/SchedulingData/static7/pso/scheduling1_13.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond57</t>
+          <t>pond11</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>90.5</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="E2" t="n">
-        <v>27.08</v>
+        <v>26.304</v>
       </c>
     </row>
     <row r="3">
@@ -485,131 +485,131 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond48</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>90.16</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>27.624</v>
+        <v>24.06</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>83.45999999999999</v>
       </c>
       <c r="D4" t="n">
-        <v>54.7</v>
+        <v>120.72</v>
       </c>
       <c r="E4" t="n">
-        <v>26.72</v>
+        <v>23.708</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>90.5</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>166.5</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="E5" t="n">
-        <v>23.56</v>
+        <v>25.528</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond15</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>38.3</v>
+        <v>62.1</v>
       </c>
       <c r="E6" t="n">
-        <v>27.36</v>
+        <v>26.48</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond23</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>90.16</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.74</v>
+        <v>49.34</v>
       </c>
       <c r="E7" t="n">
-        <v>23.256</v>
+        <v>26.256</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond64</t>
+          <t>pond19</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>43.24</v>
+        <v>83.42</v>
       </c>
       <c r="E8" t="n">
-        <v>26.876</v>
+        <v>26.308</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond6</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>49.34</v>
       </c>
       <c r="D9" t="n">
-        <v>52.16</v>
+        <v>88.54000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>26.464</v>
+        <v>22.976</v>
       </c>
     </row>
     <row r="10">
@@ -618,22 +618,22 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond37</t>
+          <t>pond22</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>166.5</v>
+        <v>88.54000000000001</v>
       </c>
       <c r="D10" t="n">
-        <v>235.9</v>
+        <v>128.96</v>
       </c>
       <c r="E10" t="n">
-        <v>18.24</v>
+        <v>20.064</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -641,260 +641,260 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>235.9</v>
+        <v>120.72</v>
       </c>
       <c r="D11" t="n">
-        <v>295.46</v>
+        <v>175.18</v>
       </c>
       <c r="E11" t="n">
-        <v>13.924</v>
+        <v>19.392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>52.16</v>
+        <v>175.18</v>
       </c>
       <c r="D12" t="n">
-        <v>113.08</v>
+        <v>255.68</v>
       </c>
       <c r="E12" t="n">
-        <v>21.992</v>
+        <v>14.452</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond61</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>38.3</v>
+        <v>128.96</v>
       </c>
       <c r="D13" t="n">
-        <v>109.3</v>
+        <v>193.86</v>
       </c>
       <c r="E13" t="n">
-        <v>23.36</v>
+        <v>16.704</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond61</t>
+          <t>pond6</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>295.46</v>
+        <v>83.42</v>
       </c>
       <c r="D14" t="n">
-        <v>360.46</v>
+        <v>144.88</v>
       </c>
       <c r="E14" t="n">
-        <v>10.564</v>
+        <v>22.772</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond63</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>360.46</v>
+        <v>144.88</v>
       </c>
       <c r="D15" t="n">
-        <v>411.46</v>
+        <v>215.98</v>
       </c>
       <c r="E15" t="n">
-        <v>7.084</v>
+        <v>18.772</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond54</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>54.7</v>
+        <v>71.40000000000001</v>
       </c>
       <c r="D16" t="n">
-        <v>108.64</v>
+        <v>139.08</v>
       </c>
       <c r="E16" t="n">
-        <v>23.456</v>
+        <v>18.912</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond32</t>
+          <t>pond57</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>113.08</v>
+        <v>215.98</v>
       </c>
       <c r="D17" t="n">
-        <v>192.68</v>
+        <v>276.38</v>
       </c>
       <c r="E17" t="n">
-        <v>17.132</v>
+        <v>15.852</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond33</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>411.46</v>
+        <v>62.1</v>
       </c>
       <c r="D18" t="n">
-        <v>476.88</v>
+        <v>133.26</v>
       </c>
       <c r="E18" t="n">
-        <v>4.172</v>
+        <v>22.944</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond30</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>43.24</v>
+        <v>193.86</v>
       </c>
       <c r="D19" t="n">
-        <v>109.04</v>
+        <v>254.48</v>
       </c>
       <c r="E19" t="n">
-        <v>21.936</v>
+        <v>13.272</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>pond41</t>
+          <t>pond32</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>109.04</v>
+        <v>133.26</v>
       </c>
       <c r="D20" t="n">
-        <v>194.98</v>
+        <v>222.56</v>
       </c>
       <c r="E20" t="n">
-        <v>17.412</v>
+        <v>18.084</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>pond58</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>194.98</v>
+        <v>71.31999999999999</v>
       </c>
       <c r="D21" t="n">
-        <v>241.52</v>
+        <v>136.1</v>
       </c>
       <c r="E21" t="n">
-        <v>14.388</v>
+        <v>21.16</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>pond33</t>
+          <t>pond64</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>108.64</v>
+        <v>255.68</v>
       </c>
       <c r="D22" t="n">
-        <v>179.9</v>
+        <v>303.32</v>
       </c>
       <c r="E22" t="n">
-        <v>19.92</v>
+        <v>11.328</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond37</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>109.3</v>
+        <v>139.08</v>
       </c>
       <c r="D23" t="n">
-        <v>170.8</v>
+        <v>203.58</v>
       </c>
       <c r="E23" t="n">
-        <v>19.84</v>
+        <v>13.592</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pond39</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>179.9</v>
+        <v>136.1</v>
       </c>
       <c r="D24" t="n">
-        <v>242.1</v>
+        <v>201.64</v>
       </c>
       <c r="E24" t="n">
-        <v>17.28</v>
+        <v>18.196</v>
       </c>
     </row>
     <row r="25">
@@ -903,79 +903,79 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>pond45</t>
+          <t>pond3</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>242.1</v>
+        <v>276.38</v>
       </c>
       <c r="D25" t="n">
-        <v>297.3</v>
+        <v>364.18</v>
       </c>
       <c r="E25" t="n">
-        <v>13.38</v>
+        <v>11.692</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>pond20</t>
+          <t>pond56</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>164.74</v>
+        <v>222.56</v>
       </c>
       <c r="D26" t="n">
-        <v>221.56</v>
+        <v>281.6</v>
       </c>
       <c r="E26" t="n">
-        <v>20.184</v>
+        <v>13.82</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>pond53</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>192.68</v>
+        <v>201.64</v>
       </c>
       <c r="D27" t="n">
-        <v>273.18</v>
+        <v>264.14</v>
       </c>
       <c r="E27" t="n">
-        <v>12.192</v>
+        <v>14.056</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>pond28</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>273.18</v>
+        <v>303.32</v>
       </c>
       <c r="D28" t="n">
-        <v>334.24</v>
+        <v>364.52</v>
       </c>
       <c r="E28" t="n">
-        <v>8.215999999999999</v>
+        <v>7.808</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>241.52</v>
+        <v>264.14</v>
       </c>
       <c r="D29" t="n">
-        <v>303.62</v>
+        <v>320.94</v>
       </c>
       <c r="E29" t="n">
-        <v>11.308</v>
+        <v>10.976</v>
       </c>
     </row>
     <row r="30">
@@ -998,188 +998,188 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond52</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>334.24</v>
+        <v>281.6</v>
       </c>
       <c r="D30" t="n">
-        <v>397.36</v>
+        <v>351.76</v>
       </c>
       <c r="E30" t="n">
-        <v>5.024</v>
+        <v>9.404</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>pond10</t>
+          <t>pond53</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>221.56</v>
+        <v>364.18</v>
       </c>
       <c r="D31" t="n">
-        <v>274.28</v>
+        <v>454.78</v>
       </c>
       <c r="E31" t="n">
-        <v>16.532</v>
+        <v>6.752</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>pond42</t>
+          <t>pond41</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>170.8</v>
+        <v>203.58</v>
       </c>
       <c r="D32" t="n">
-        <v>220.56</v>
+        <v>274.82</v>
       </c>
       <c r="E32" t="n">
-        <v>16.984</v>
+        <v>9.068</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>pond46</t>
+          <t>pond34</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>397.36</v>
+        <v>320.94</v>
       </c>
       <c r="D33" t="n">
-        <v>446.56</v>
+        <v>370.68</v>
       </c>
       <c r="E33" t="n">
-        <v>1.244</v>
+        <v>7.632</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>pond42</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>446.56</v>
+        <v>364.52</v>
       </c>
       <c r="D34" t="n">
-        <v>520.87</v>
+        <v>414.28</v>
       </c>
       <c r="E34" t="n">
-        <v>30</v>
+        <v>4.952</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>pond19</t>
+          <t>pond25</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>274.28</v>
+        <v>351.76</v>
       </c>
       <c r="D35" t="n">
-        <v>322.5</v>
+        <v>421.14</v>
       </c>
       <c r="E35" t="n">
-        <v>12.84</v>
+        <v>5.576</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>pond59</t>
+          <t>pond20</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>322.5</v>
+        <v>370.68</v>
       </c>
       <c r="D36" t="n">
-        <v>388.1</v>
+        <v>422.6</v>
       </c>
       <c r="E36" t="n">
-        <v>8.92</v>
+        <v>4.56</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>pond1</t>
+          <t>pond58</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>303.62</v>
+        <v>422.6</v>
       </c>
       <c r="D37" t="n">
-        <v>338.62</v>
+        <v>489.04</v>
       </c>
       <c r="E37" t="n">
-        <v>8.948</v>
+        <v>1.536</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pond3</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>476.88</v>
+        <v>489.04</v>
       </c>
       <c r="D38" t="n">
-        <v>539.58</v>
+        <v>592.37</v>
       </c>
       <c r="E38" t="n">
-        <v>0.012</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>539.58</v>
+        <v>592.37</v>
       </c>
       <c r="D39" t="n">
-        <v>641.0599999999999</v>
+        <v>648.29</v>
       </c>
       <c r="E39" t="n">
-        <v>30</v>
+        <v>27.088</v>
       </c>
     </row>
     <row r="40">
@@ -1188,74 +1188,74 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>pond23</t>
+          <t>pond15</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>641.0599999999999</v>
+        <v>254.48</v>
       </c>
       <c r="D40" t="n">
-        <v>690.4</v>
+        <v>297.18</v>
       </c>
       <c r="E40" t="n">
-        <v>26.256</v>
+        <v>10.632</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>pond44</t>
+          <t>pond46</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>220.56</v>
+        <v>274.82</v>
       </c>
       <c r="D41" t="n">
-        <v>267.48</v>
+        <v>343.52</v>
       </c>
       <c r="E41" t="n">
-        <v>13.912</v>
+        <v>5.288</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>pond48</t>
+          <t>pond1</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>297.3</v>
+        <v>414.28</v>
       </c>
       <c r="D42" t="n">
-        <v>377.8</v>
+        <v>469.18</v>
       </c>
       <c r="E42" t="n">
-        <v>7.44</v>
+        <v>2.592</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>pond50</t>
+          <t>pond36</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>377.8</v>
+        <v>343.52</v>
       </c>
       <c r="D43" t="n">
-        <v>454.4</v>
+        <v>396.92</v>
       </c>
       <c r="E43" t="n">
-        <v>3.36</v>
+        <v>1.568</v>
       </c>
     </row>
     <row r="44">
@@ -1264,17 +1264,17 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>388.1</v>
+        <v>396.92</v>
       </c>
       <c r="D44" t="n">
-        <v>465.7</v>
+        <v>480.38</v>
       </c>
       <c r="E44" t="n">
-        <v>4.78</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45">
@@ -1283,52 +1283,52 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>pond22</t>
+          <t>pond28</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>520.87</v>
+        <v>421.14</v>
       </c>
       <c r="D45" t="n">
-        <v>571.79</v>
+        <v>482</v>
       </c>
       <c r="E45" t="n">
-        <v>27.088</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>pond56</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>465.7</v>
+        <v>482</v>
       </c>
       <c r="D46" t="n">
-        <v>544.4400000000001</v>
+        <v>565.4</v>
       </c>
       <c r="E46" t="n">
-        <v>0.516</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>depot2</t>
+          <t>depot1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>544.4400000000001</v>
+        <v>469.18</v>
       </c>
       <c r="D47" t="n">
-        <v>615.41</v>
+        <v>575.3</v>
       </c>
       <c r="E47" t="n">
         <v>30</v>
@@ -1336,287 +1336,287 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>pond30</t>
+          <t>pond50</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>267.48</v>
+        <v>575.3</v>
       </c>
       <c r="D48" t="n">
-        <v>323</v>
+        <v>662.5</v>
       </c>
       <c r="E48" t="n">
-        <v>10.48</v>
+        <v>25.92</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>pond25</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>338.62</v>
+        <v>480.38</v>
       </c>
       <c r="D49" t="n">
-        <v>393.3</v>
+        <v>550.54</v>
       </c>
       <c r="E49" t="n">
-        <v>5.12</v>
+        <v>27.624</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond8</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>393.3</v>
+        <v>297.18</v>
       </c>
       <c r="D50" t="n">
-        <v>484.36</v>
+        <v>346.28</v>
       </c>
       <c r="E50" t="n">
-        <v>30</v>
+        <v>6.852</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>484.36</v>
+        <v>565.4</v>
       </c>
       <c r="D51" t="n">
-        <v>552.64</v>
+        <v>629.12</v>
       </c>
       <c r="E51" t="n">
-        <v>24.852</v>
+        <v>26.808</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>pond11</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>323</v>
+        <v>550.54</v>
       </c>
       <c r="D52" t="n">
-        <v>386.06</v>
+        <v>620.4400000000001</v>
       </c>
       <c r="E52" t="n">
-        <v>6.784</v>
+        <v>24.264</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond63</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>571.79</v>
+        <v>648.29</v>
       </c>
       <c r="D53" t="n">
-        <v>627.4299999999999</v>
+        <v>719.39</v>
       </c>
       <c r="E53" t="n">
-        <v>24.124</v>
+        <v>23.608</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>pond34</t>
+          <t>pond45</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>386.06</v>
+        <v>346.28</v>
       </c>
       <c r="D54" t="n">
-        <v>440.8</v>
+        <v>426.38</v>
       </c>
       <c r="E54" t="n">
-        <v>3.44</v>
+        <v>2.952</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>depot2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>615.41</v>
+        <v>426.38</v>
       </c>
       <c r="D55" t="n">
-        <v>685.51</v>
+        <v>502.18</v>
       </c>
       <c r="E55" t="n">
-        <v>26.64</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>pond52</t>
+          <t>pond54</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>552.64</v>
+        <v>502.18</v>
       </c>
       <c r="D56" t="n">
-        <v>618</v>
+        <v>556.62</v>
       </c>
       <c r="E56" t="n">
-        <v>20.436</v>
+        <v>26.736</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>pond8</t>
+          <t>pond59</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>690.4</v>
+        <v>454.78</v>
       </c>
       <c r="D57" t="n">
-        <v>744.5</v>
+        <v>510.18</v>
       </c>
       <c r="E57" t="n">
-        <v>22.476</v>
+        <v>2.832</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>pond4</t>
+          <t>pond44</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>440.8</v>
+        <v>556.62</v>
       </c>
       <c r="D58" t="n">
-        <v>497.96</v>
+        <v>603.54</v>
       </c>
       <c r="E58" t="n">
-        <v>0.844</v>
+        <v>23.664</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>depot1</t>
+          <t>pond29</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>497.96</v>
+        <v>603.54</v>
       </c>
       <c r="D59" t="n">
-        <v>592.87</v>
+        <v>647.12</v>
       </c>
       <c r="E59" t="n">
-        <v>30</v>
+        <v>20.936</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>pond26</t>
+          <t>pond39</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>592.87</v>
+        <v>662.5</v>
       </c>
       <c r="D60" t="n">
-        <v>659.51</v>
+        <v>724.8</v>
       </c>
       <c r="E60" t="n">
-        <v>26.976</v>
+        <v>23.28</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>pond29</t>
+          <t>pond10</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>685.51</v>
+        <v>647.12</v>
       </c>
       <c r="D61" t="n">
-        <v>738.99</v>
+        <v>709.74</v>
       </c>
       <c r="E61" t="n">
-        <v>23.912</v>
+        <v>17.284</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>pond36</t>
+          <t>pond26</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>618</v>
+        <v>629.12</v>
       </c>
       <c r="D62" t="n">
-        <v>666.6</v>
+        <v>700.36</v>
       </c>
       <c r="E62" t="n">
-        <v>16.716</v>
+        <v>23.784</v>
       </c>
     </row>
   </sheetData>
